--- a/PYTHON/EstudiantesAzarNombres/grado 11a 2024.xlsx
+++ b/PYTHON/EstudiantesAzarNombres/grado 11a 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Obsidian\DOCENCIA\PROGRAMACION\PYTHON\EstudiantesAzarNombres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Mi unidad\Obsidian\PROGRAMACION\PYTHON\EstudiantesAzarNombres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB40812-7C19-4FDE-A567-C420B520F4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7944578C-164D-4D31-BC66-5C4C235E1999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EA8F0CAF-ECDA-4CE6-BFFB-E85DBA76ADF9}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="15375" windowHeight="7785" xr2:uid="{EA8F0CAF-ECDA-4CE6-BFFB-E85DBA76ADF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,86 +41,86 @@
     <t>Estudiantes</t>
   </si>
   <si>
-    <t>Ballesteros Lopez Amy Cecilia</t>
-  </si>
-  <si>
-    <t>Baron Villadiego Argel David</t>
-  </si>
-  <si>
-    <t>Cordero Pacheco Valentina</t>
-  </si>
-  <si>
-    <t>De La Cruz Corcho Dewin Yair</t>
-  </si>
-  <si>
-    <t>Guerra Estrada Michel</t>
-  </si>
-  <si>
-    <t>Guerra Gaviria Yiseth Paola</t>
-  </si>
-  <si>
-    <t>Mora Fabra Natalia</t>
-  </si>
-  <si>
-    <t>Murillo Usuga Keyner Andres</t>
-  </si>
-  <si>
-    <t>Nuñez Monterrosa Zharit</t>
-  </si>
-  <si>
-    <t>Ortiz Cardenas Maria Alejandra</t>
-  </si>
-  <si>
-    <t>Peñate Mora Juan David</t>
-  </si>
-  <si>
-    <t>Teheran Castellano Evelin</t>
-  </si>
-  <si>
-    <t>Arteaga Mestra Samuel</t>
-  </si>
-  <si>
-    <t>Arteaga Mestra Sara Ludith</t>
-  </si>
-  <si>
-    <t>Escobar Torres Yesenia</t>
-  </si>
-  <si>
-    <t>Hernandez Arcia Manuel De Jesus</t>
-  </si>
-  <si>
-    <t>Jimenez Florez Andres</t>
-  </si>
-  <si>
-    <t>Marquez Rosario Natalia Isabel</t>
-  </si>
-  <si>
-    <t>Matias Manchego Elimelec</t>
-  </si>
-  <si>
-    <t>Morelo Cordero Lidis Esther</t>
-  </si>
-  <si>
-    <t>Negrete Ocampo Kevin David</t>
-  </si>
-  <si>
-    <t>Padilla Mendoza Leydy Yulieth</t>
-  </si>
-  <si>
-    <t>Reyes Mora Sebastian</t>
-  </si>
-  <si>
     <t>Rovira Almario Astrid Carolina</t>
   </si>
   <si>
     <t>Seña Petro Juan Manuel</t>
+  </si>
+  <si>
+    <t>Angel Rosario Rosmi</t>
+  </si>
+  <si>
+    <t>Barrios Carvajal Wilmar Andres</t>
+  </si>
+  <si>
+    <t>Jaramillo Ariza Juan Luis</t>
+  </si>
+  <si>
+    <t>Ordoñez Pereira Maria Alejandra</t>
+  </si>
+  <si>
+    <t>Parra Durango Emmanuel</t>
+  </si>
+  <si>
+    <t>Parra Peñate Luisa Fernanda</t>
+  </si>
+  <si>
+    <t>Perez Saldoval Mario Andres</t>
+  </si>
+  <si>
+    <t>Restrepo Goenaga Andres Felipe</t>
+  </si>
+  <si>
+    <t>Romero Banquet Aider</t>
+  </si>
+  <si>
+    <t>Teran Marquez Freidy Andres</t>
+  </si>
+  <si>
+    <t>Valencia Calderon Carolina</t>
+  </si>
+  <si>
+    <t>Ariza Toro Yoider Alexander</t>
+  </si>
+  <si>
+    <t>Baron Chaverra Edier Andres</t>
+  </si>
+  <si>
+    <t>Basilio Vasquez Viviana Maria</t>
+  </si>
+  <si>
+    <t>Castebonde Garcia Ezequiel</t>
+  </si>
+  <si>
+    <t>Cordoba Perez Yaxen</t>
+  </si>
+  <si>
+    <t>Diaz Alvarez Jhonatan David</t>
+  </si>
+  <si>
+    <t>Echavarria Gaviria Yiris Yirlei</t>
+  </si>
+  <si>
+    <t>Jimenez Ruiz Darlenis</t>
+  </si>
+  <si>
+    <t>Mercado Pertuz Nayidis</t>
+  </si>
+  <si>
+    <t>Moreno Guzman Juan Estiven</t>
+  </si>
+  <si>
+    <t>Nestra Matias Wilsher Andres</t>
+  </si>
+  <si>
+    <t>Vizcaino Machado Luis Alberto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,14 +143,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -163,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -181,16 +175,31 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="double">
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -205,22 +214,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,139 +565,139 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" thickBot="1">
-      <c r="A3" s="2" t="s">
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" thickBot="1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" thickBot="1">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" thickBot="1">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" thickBot="1">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" thickBot="1">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15" thickBot="1">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15" thickBot="1">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" thickBot="1">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" thickBot="1">
-      <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" thickBot="1">
-      <c r="A19" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" thickBot="1">
-      <c r="A20" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" thickBot="1">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" thickBot="1">
-      <c r="A22" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" thickBot="1">
-      <c r="A23" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15" thickBot="1">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" thickBot="1">
-      <c r="A26" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
